--- a/homework/FinalProject/H1B/CoronavirusTrumpTimeline.xlsx
+++ b/homework/FinalProject/H1B/CoronavirusTrumpTimeline.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="460" windowWidth="14340" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$27</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>word</t>
   </si>
@@ -70,9 +73,6 @@
 </t>
   </si>
   <si>
-    <t>Jan. 28</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -100,21 +100,9 @@
     <t>Twitter</t>
   </si>
   <si>
-    <t>https://twitter.com/realdonaldtrump/status/1222235668430184449</t>
-  </si>
-  <si>
-    <t>coronavirus vaccine</t>
-  </si>
-  <si>
-    <t>Jan. 28, he retweeted a headline from One America News, an outlet with a history of spreading false conspiracy theories: “Johnson &amp; Johnson to create coronavirus vaccine.”</t>
-  </si>
-  <si>
     <t xml:space="preserve">He tweeted, “It will all work out well.” </t>
   </si>
   <si>
-    <t>Jan. 30</t>
-  </si>
-  <si>
     <t>Jan. 30, during a speech in Michigan, he said: “We have it very well under control. We have very little problem in this country at this moment — five. And those people are all recuperating successfully.”</t>
   </si>
   <si>
@@ -142,28 +130,550 @@
     <t>public-health emergency of international concern/7,818 confirmed cases</t>
   </si>
   <si>
-    <t>Jan. 31</t>
-  </si>
-  <si>
-    <t>most foreigners recently visited China barred from entering U.S.</t>
+    <t>Former CDC director Tom Frieden</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh not at all and we're, we have a totally under control. It's one person coming in from China. And we have it under control, it's going to be just fine. Okay. 
+I do I do I have a great relationship with President Xi we just signed, probably the biggest deal ever made. The terms it certainly has the potential to be the biggest deal ever made and it was very interesting period of time. Now, let's get it done and no i do i think the relationship is very, very good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement on the meeting of the International Health Regulations (2005) Emergency Committee regarding the outbreak of novel coronavirus (2019-nCoV)
+Conclusions and Advice
+On 22 January, the members of the Emergency Committee expressed divergent views on whether this event constitutes a PHEIC or not. At that time, the advice was that the event did not constitute a PHEIC, but the Committee members agreed on the urgency of the situation and suggested that the Committee should be reconvened in a matter of days to examine the situation further.
+After the announcement of new containment measures in Wuhan on 22 January, the Director-General asked the Emergency Committee to reconvene on 23 January to study the information provided by Chinese authorities about the most recent epidemiological evolution and the risk-management measures taken.
+Chinese authorities presented new epidemiological information that revealed an increase in the number of cases, of suspected cases, of affected provinces, and the proportion of deaths in currently reported cases of 4% (17 of 557). They reported fourth-generation cases in Wuhan and second-generation cases outside Wuhan, as well as some clusters outside Hubei province. They explained that strong containment measures (closure of public-transportation systems are in place in Wuhan City, as well as other nearby cities). After this presentation, the EC was informed about the evolution in Japan, Republic of Korea, and Thailand, and that one new possible case had been identified in Singapore.
+The Committee welcomed the efforts made by China to investigate and contain the current outbreak.
+The following elements were considered as critical:
+Human-to-human transmission is occurring and a preliminary R0 estimate of 1.4-2.5 was presented. Amplification has occurred in one health care facility. Of confirmed cases, 25% are reported to be severe. The source is still unknown (most likely an animal reservoir) and the extent of human-to-human transmission is still not clear. 
+Several members considered that it is still too early to declare a PHEIC, given its restrictive and binary nature. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO held meeting of the International Health Regulations (2005) Emergency Committee regarding the outbreak of novel coronavirus (2019-nCoV)
+</t>
+  </si>
+  <si>
+    <t>https://www.who.int/news-room/detail/23-01-2020-statement-on-the-meeting-of-the-international-health-regulations-(2005)-emergency-committee-regarding-the-outbreak-of-novel-coronavirus-(2019-ncov)</t>
+  </si>
+  <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2020/01/22/health/china-virus.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As New Virus Spreads From China, Scientists See Grim Reminders
+</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As New Virus Spreads From China, Scientists See Grim Reminders
+Epidemics of related viruses, like SARS, killed hundreds. But the W.H.O. has postponed a decision on whether the new outbreak is a global emergency.
+Travelers arriving in Kolkata, India, from China were screened with a thermographic camera for signs of coronavirus infection.
+Travelers arriving in Kolkata, India, from China were screened with a thermographic camera for signs of coronavirus infection.Credit...Indian Ministry of Civil Aviation, via Agence France-Presse — Getty Images
+Less than a month after the first few cases of a new respiratory illness were reported in Wuhan, China, travelers have carried the virus to at least four other countries, including the United States. More than 500 people are known to have been infected, at least 17 have died — and the world is bracing itself for what might come next.
+On Wednesday, experts at the World Health Organization decided to postpone until Thursday a decision on whether the current outbreak constitutes a “public health emergency of international concern,” a label given to serious public health events that endanger international public health” and “potentially require a coordinated international response.”
+A vote by W.H.O.’s emergency committee was split down the middle, its chairman said, and the group concluded that it did not have enough information to make a decision.
+“The decision about whether or not to declare a public health emergency of international concern is one I take extremely seriously, and one I am only prepared to make with appropriate consideration of all the evidence,” Dr. Tedros Adhanom Ghebreyesus, W.H.O.’s director general, said at news briefing.
+Adding that a W.H.O. team was in China gathering information, he said, “We will have much more to say tomorrow
+But even as the W.H.O. debated its decision, officials in China began closing transportation links from and within Wuhan, China, the epicenter of the outbreak. The move was a significant escalation in the country’s attempts to contain the spread of the virus as the Lunar New Year approaches and holiday travel commences.
+Dr. Tedros and W.H.O. officials at the briefing said they had not advised China to close Wuhan, but nonetheless expressed support for the decision, saying it could protect other parts of China and other countries.
+Public health officials around the world are on alert because the new infection is caused by a coronavirus, from the same family that caused outbreaks of SARS and MERS, killing hundreds of people in dozens of countries.
+The W.H.O. has already advised governments to be prepared for the disease, to be vigilant and ready to test anyone with symptoms like cough and fever who has traveled to affected regions. Air travel is expected to surge as the Lunar New Year approaches this weekend.
+As deaths surge, Spain and Italy look for signs of a turning point.
+More important than an emergency declaration is the need for more data on the outbreak, said Jennifer B. Nuzzo of the Johns Hopkins Center for Health Security.
+Scientists still do not have enough information about the severity of the disease, she said.
+“I want to see from the emergency committee all the information on the table and an assessment of what the risk really is,” Dr. Nuzzo said. “To me, that’s far more important than their declaration.”
+One purpose of an emergency declaration is to draw world attention to an outbreak, so that governments can prepare and also provide needed help.
+“There’s already a high level of global attention,” Dr. Nuzzo said, adding that she was not sure how much a declaration would have changed things.
+Several countries have already begun screening travelers from China for fever and cough. Airports in Los Angeles, New York and San Francisco last week started to screen arriving flights from Wuhan, and airports in Atlanta and Chicago will begin doing so this week.
+“Data shows that entry screening requires a tremendous amount of resources and is not tremendously effective,” Dr. Nuzzo said.
+North Korea has suspended tourism because of the outbreak, according to Reuters.
+The virus has sickened tens of thousands of people in China and a number of other countries.
+Important questions about the outbreak are still unanswered, and W.H.O.’s expert committee now must grapple with significant unknowns.
+“We don’t know how many people are infected,” said Tarik Jasarevic, a spokesman for the W.H.O. “The more you test, the more you will find people who are infected. We don’t know if there are asymptomatic cases. If they are asymptomatic, are they contagious?”
+Broad studies to test for evidence of infection, past and present, would give a true picture of how many people have been exposed to the virus.
+The virus causes a pneumonialike illness, with coughing and fever in some people but not all. The severity matters: If there are cases with mild illness or no symptoms at all, they may go undetected, and those people will keep working, shopping and traveling, possibly infecting others.
+A milder illness has the potential to spread farther and cause longer-lasting outbreaks than one with more obvious symptoms, according to Dr. Mark R. Denison, an infectious disease specialist at the Vanderbilt University School of Medicine who studies coronaviruses.
+Compared to SARS and MERS, the Wuhan illness so far does seem less severe, he said.
+SARS, which began in live-animal markets in China in 2002, quickly spread to dozens of countries, infecting more than 8,000 people and killing nearly 800. The virus is thought to have originated in bats and spread to civet cats that were being sold for consumption.
+The civets spread the virus to humans, who infected one another through respiratory secretions and also exposure to feces.
+SARS often caused severe illness, so cases were detectable, Dr. Denison said; aggressive public health measures, including quarantines and travel restrictions, helped stamp out the epidemic.
+ImageTravelers arriving at the Los Angeles International Airport from China on Tuesday. Health officials at airports in Los Angeles, San Francisco, New York, Chicago and Atlanta are now screening passengers arriving from Wuhan, China, for infection with a new virus. 
+Travelers arriving at the Los Angeles International Airport from China on Tuesday. Health officials at airports in Los Angeles, San Francisco, New York, Chicago and Atlanta are now screening passengers arriving from Wuhan, China, for infection with a new virus. Credit...Alex Welsh for The New York Times
+But the travel bans, not to mention widespread fear and distrust, took a heavy economic toll on China, and since then international authorities have become hesitant about taking drastic steps to quell outbreaks.
+MERS cases have been occurring in the Middle East since 2012, mainly in people who have been exposed to camels, which were most likely infected by bats. Human-to-human transmission does occur, and some spread has happened in hospitals.
+As of November, there had been 2,494 cases of MERS in the last seven years, mostly in Saudi Arabia. The death rate is 34 percent, but may actually be lower if there are mild cases of the disease that have not been detected or counted.
+Dr. Denison described the new Wuhan coronavirus as “sort of a first cousin of SARS,” more closely related to it than to MERS, based on its genetic sequence.
+Researchers do not know just how contagious the Wuhan coronavirus is. The first people to be infected are thought to have contracted it at a market in Wuhan that sold meat, fish and live animals.
+That market has been shut down and disinfected. Which animal might have been carrying the virus is not yet known.
+Initially, the illness appeared to spread only from animals to people. Then, experts said there was evidence of “limited” human-to-human transmission. Now, more cases are emerging among people with no known exposure to the animal markets, and in medical staff members caring for infected patients.
+“Now that you have a cluster of 14 health care workers infected, it suggests that the potential for spread is much greater,” said Dr. Ian W. Lipkin, director of the Center for Infection and Immunity at Columbia University’s Mailman School of Public Health in New York, who has researched SARS and MERS.
+“I saw film footage of a hospital lobby in Wuhan, and they are wearing full personal protective equipment from head to toe,” he said. “They are taking it very seriously. I still don’t think this is as bad as SARS, but it’s worse than they originally portrayed it.”
+Dr. Denison said that with both SARS and MERS, there were episodes in which individual patients became “super-spreaders” who infected many other people, for unknown reasons.
+“That’s a wild card we don’t know, the capacity to have multiple transmissions from one person,” Dr. Denison said. “There was no evidence they had dramatically different virus.”
+It is possible, he said, that super-spreaders had received a high dose of the virus and had more of it to transmit. Alternatively, their immune systems might have not been able to control the virus, allowing it to multiply and spread extensively in their bodies, making them more contagious.
+Although no drugs have been approved specifically to treat coronavirus diseases, Dr. Denison said that in animal studies, an antiviral called remdesivir appeared effective. He has been working with other researchers to develop treatments.
+Mr. Jasarevic said that antivirals were being tested against MERS, but that none had been approved yet.
+How and why viruses that have peacefully coexisted with their animal hosts for a long time strike out for new territory — us — is not well understood.
+Coronaviruses often inhabit bats without harming them, and sometimes move into other animal species and from them to humans.
+In places that bring multiple animal species together with lots of people — like the food markets in Wuhan and in other parts of China that sell live mammals and birds, along with meat and fish — viruses can pass back and forth between species, mutating as they go. Along the way, they may become able to infect humans.
+“Coronaviruses have repeatedly shown an ability to probe across species and cause new animal and human diseases,” Dr. Denison said.
+To go successfully from animal hosts to people, the viruses need to adapt in several ways: They must gain the ability to invade human cells, evade the immune system, replicate inside the human body and spread to others.
+The move is often described as “jumping” into humans, but that is an oversimplification, Dr. Denison said. “The process it has to go through is more like high hurdles with a thousand hurdles along the way,” he said.
+Still, the new outbreak does not greatly surprise him: “This was a matter of not if, but when.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There may or may not always be something new out of Africa, as the saying goes, but there’s always something new out of the microbial world. Scientists find an average of one new pathogen every year. The decade is off to a quick start with a newly discovered virus that started sickening — and sometimes killing — people in Wuhan, China. It may have spread to Japan, and just caused the first infection in the United States.
+The new virus is a coronavirus. Some coronaviruses don’t infect humans, others do but cause only minor illness. Some can cause severe illness in a high proportion of those infected by it, like the coronavirus responsible for severe acute respiratory syndrome (SARS), which sickened more than 8,000 people globally in 2003, killing nearly 800.
+Here are three key questions to be answered about the new coronavirus, and some emerging answers to these questions.
+First: How readily does this new coronavirus spread? In the dry language of epidemiology, the question is “What’s the Ro?” The higher the Ro (pronounced r-zero), the more rapid and extensive the spread. (There’s a memorable explanation of Ro in the movie “Contagion.” Kate Winslet, playing a CDC epidemiologist, explains the concept to terrified local government leaders.) The answer, so far is, “We have no idea.”
+Related: CDC details first U.S. case of novel virus spreading in China
+It’s clear that the virus spreads from person to person. Many of those affected, including the man diagnosed with it in the U.S., had no known contact with a live animal market, which is where the virus is believed to have first spread from animals to people.
+The assertion that the infection emerged because of contact at a live animal market, while plausible, at this point is just a theory. Microbes can be highly contagious: One person with measles is able to infect hundreds of others if they are not immune. They can also be not very contagious, like rabies, which rarely spreads from one person to another. Sometimes organisms spread to just a few people, particularly close contacts such as family caregivers, and then stop.
+But the World Health Organization has now indicated that there “may be sustained human to human” transmission, which means the virus could potentially spread widely, and for a long time.
+Second: How deadly is this newly identified coronavirus? This is called the case fatality rate, which is determined by the proportion of people with the infection who die from it. The answer so far is that it looks more serious than the common cold but less serious than SARS.
+The World Health Organization on Tuesday released its first situation report on the novel coronavirus, with two disparate data points. One: Of concern is that 51 of 278 individuals known to be infected with the new coronavirus are reported to have been severely ill. Because there are undoubtedly many more infections than 278, we still don’t know the case fatality rate. Two: On the other hand, the report notes that at least five people had infection with no symptoms. That’s somewhat reassuring, but it’s not very reassuring.
+Here’s why. A pathogen’s harmfulness is determined by the combination of Ro and the case fatality rate. The worst strains of influenza have a relatively high Ro (with nearly two people infected by every patient). The case fatality rate with flu can be low — less than one death per every 10,000 people infected. But since flu infects hundreds of millions of people a year around the world, if the case fatality rate increases, as it did in 1918-1919 to “only” 1% to 2%, the results can be catastrophic. That’s why epidemiologists — who can disagree about almost everything — are nearly unanimous in identifying pandemic influenza as the greatest microbial threat to humanity.
+These two critical elements — how readily an infection spreads and how deadly it is — are captured in this graphic from an article by CDC scientists. Quadrant A — not very infectious and not very severe — might be a virus that doesn’t spread easily and doesn’t often cause severe disease. At the other extreme, the 1918-1919 influenza pandemic was in quadrant D — both infectious and severe.
+In short, it’s vitally important that we quickly find out how infectious the new coronavirus is, because that will determine how serious the risk is.
+Third: How can we limit the risk? We know even less about the answer to this question than we know about the first two. If it’s confirmed that the virus spreads from live animal markets to people, this raises an important issue. These markets (also called wet markets) are an integral part of shopping in parts of Asia and elsewhere. But they are also an important route of spread of infections from animals to people, which is how Ebola, SARS, MERS, and new strains of influenza arise.
+After a nasty strain of flu called H7N9 spread in China, Beijing closed its live bird markets, helping to end that outbreak and prevent others. Curtailing the practice of selling live animals for food won’t be easy or quick, but it’s something leaders need to consider in the long term. Right now, that won’t make much difference, because the new coronavirus is spreading from person to person.
+So, what’s the bottom line?
+The new virus is likely to continue spreading and be recognized more, and in more countries, in the coming days and weeks. We need to learn — and fast — about how it spreads and how often it causes severe illness so we can try to prevent its spread.
+Here are a few early strategies:
+If you are elderly or have an health underlying condition, think twice before going to Wuhan (or any other area where the virus is spreading), until we learn more about it. And if you’ve been in Wuhan or in contact with anyone who has been since December and are sick, see a doctor right away. Health care workers need to be protected, because we’re not yet sure how the virus spreads.
+The simplest of infection-control strategies should get more of the limelight: Wash your hands often, especially after going to the bathroom and before eating or touching your face. Cover your mouth and nose with a tissue or your sleeve when you cough or sneeze. And don’t go out if you’re sick with fever and cough. Each of these behaviors reduces the Ro of an infection, because the Ro reflects a series of factors — human behavior, crowding, ventilation, and cleanliness, as well as the inherent qualities of the microbe.
+And stay tuned. We’ll learn more in the coming days and weeks. As I once heard the legendary Nobel laureate Joshua Lederberg say, we’re outnumbered by microbes by billions to one — it’s their numbers against our smarts.
+All three reporters had promised their sources confidentiality and feared that revealing their sources would compromise their effectiveness as reporters.
+</t>
+  </si>
+  <si>
+    <t>Science Reporter</t>
+  </si>
+  <si>
+    <t>China has been working very hard to contain the Coronavirus. The United States greatly appreciates their efforts and transparency. It will all work out well. In particular, on behalf of the American People, I want to thank President Xi!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ve taken in billions and billions of dollars from China.  Billions and billions of dollars from China.  And then they agreed to sign the agreement.  Now we’re working very strongly with China on the coronavirus — that’s a new thing that a lot of people are talking about.  Hopefully it won’t be as bad as some people think it could be.  But we’re working very closely with them and with a lot of other people and a lot of other countries.  And we think we have it very well under control.
+We have very little problem in this country at this moment — five.  And those people are all recuperating successfully.  But we’re working very closely with China and other countries, and we think it’s going to have a very good ending for it.  So that I can assure you.
+In the meantime, I just want to congratulate all of the people of Dana.  You have been just outstanding.  I followed your company.  As a person in the business world for a long time, I followed Dana and lots of other companies.  You’ve really done an outstanding job.  And it really is the great people.  Right now, the great people that work here — those people that can do such precision brilliant work, you’re the ones that are doing it, and you’re the ones that our country and the people of our country has great respect for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusions and advice
+The Committee welcomed the leadership and political commitment of the very highest levels of Chinese government, their commitment to transparency, and the efforts made to investigate and contain the current outbreak. China quickly identified the virus and shared its sequence, so that other countries could diagnose it quickly and protect themselves, which has resulted in the rapid development of diagnostic tools. 
+The very strong measures the country has taken include daily contact with WHO and comprehensive multi-sectoral approaches to prevent further spread. It has also taken public health measures in other cities and provinces; is conducting studies on the severity and transmissibility of the virus, and sharing data and biological material. The country has also agreed to work with other countries who need their support. The measures China has taken are good not only for that country but also for the rest of the world. 
+The Committee acknowledged the leading role of WHO and its partners. 
+The Committee also acknowledged that there are still many unknowns, cases have now been reported in five WHO regions in one month, and human-to-human transmission has occurred outside Wuhan and outside China. 
+The Committee believes that it is still possible to interrupt virus spread, provided that countries put in place strong measures to detect disease early, isolate and treat cases, trace contacts, and promote social distancing measures commensurate with the risk. It is important to note that as the situation continues to evolve, so will the strategic goals and measures to prevent and reduce spread of the infection. The Committee agreed that the outbreak now meets the criteria for a Public Health Emergency of International Concern and proposed the following advice to be issued as Temporary Recommendations. 
+The Committee emphasized that the declaration of a PHEIC should be seen in the spirit of support and appreciation for China, its people, and the actions China has taken on the frontlines of this outbreak, with transparency, and, it is to be hoped, with success. In line with the need for global solidarity, the Committee felt that a global coordinated effort is needed to enhance preparedness in other regions of the world that may need additional support for that. 
+Advice to WHO
+The Committee welcomed a forthcoming WHO multidisciplinary technical mission to China, including national and local experts. The mission should review and support efforts to investigate the animal source of the outbreak, the clinical spectrum of the disease and its severity, the extent of human-to-human transmission in the community and in healthcare facilities, and efforts to control the outbreak. This mission will provide information to the international community to aid in understanding the situation and its impact and enable sharing of experience and successful measures.
+The Committee wished to re-emphasize the importance of studying the possible source, to rule out hidden transmission and to inform risk management measures
+The Committee also emphasized the need for enhanced surveillance in regions outside Hubei, including pathogen genomic sequencing, to understand whether local cycles of transmission are occurring.
+WHO should continue to use its networks of technical experts to assess how best this outbreak can be contained globally. 
+WHO should provide intensified support for preparation and response, especially in vulnerable countries and regions.
+Measures to ensure rapid development and access to potential vaccines, diagnostics, antiviral medicines and other therapeutics for low- and middle-income countries should be developed. 
+WHO should continue to provide all necessary technical and operational support to respond to this outbreak, including with its extensive networks of partners and collaborating institutions, to implement a comprehensive risk communication strategy, and to allow for the advancement of research and scientific developments in relation to this novel coronavirus. 
+WHO should continue to explore the advisability of creating an intermediate level of alert between the binary possibilities of PHEIC or no PHEIC, in a way that does not require reopening negotiations on the text of the IHR (2005).
+WHO should timely review the situation with transparency and update its evidence-based recommendations.
+The Committee does not recommend any travel or trade restriction based on the current information available. 
+The Director-General declared that the outbreak of 2019-nCoV constitutes a PHEIC and accepted the Committee’s advice and issued this advice as Temporary Recommendations under the IHR. 
+To the People’s Republic of China
+Continue to:
+• Implement a comprehensive risk communication strategy to regularly inform the population on the evolution of the outbreak, the prevention and protection measures for the population, and the response measures taken for its containment.  
+• Enhance public health measures for containment of the current outbreak.
+• Ensure the resilience of the health system and protect the health workforce. 
+• Enhance surveillance and active case finding across China.
+• Collaborate with WHO and partners to conduct investigations to understand the epidemiology and the evolution of this outbreak and measures to contain it.
+• Share relevant data on human cases.
+• Continue to identify the zoonotic source of the outbreak, and particularly the potential for circulation with WHO as soon as it becomes available.
+• Conduct exit screening at international airports and ports, with the aim of early detection of symptomatic travelers for further evaluation and treatment, while minimizing interference with international traffic.  
+To all countries
+It is expected that further international exportation of cases may appear in any country. Thus, all countries should be prepared for containment, including active surveillance, early detection, isolation and case management, contact tracing and prevention of onward spread of 2019-nCoVinfection, and to share full data with WHO. Technical advice is available on the WHO website.
+Countries are reminded that they are legally required to share information with WHO under the IHR. 
+Any detection of 2019-nCoV in an animal (including information about the species, diagnostic tests, and relevant epidemiological information) should be reported to the World Organization for Animal Health (OIE) as an emerging disease.
+Countries should place particular emphasis on reducing human infection, prevention of secondary transmission and international spread, and contributing to the international response though multi-sectoral communication and collaboration and active participation in increasing knowledge on the virus and the disease, as well as advancing research.  
+The Committee does not recommend any travel or trade restriction based on the current information available.  
+Countries must inform WHO about travel measures taken, as required by the IHR. Countries are cautioned against actions that promote stigma or discrimination, in line with the principles of Article 3 of the IHR. 
+The Committee asked the Director-General to provide further advice on these matters and, if necessary, to make new case-by-case recommendations, in view of this rapidly evolving situation. 
+To the global community
+As this is a new coronavirus, and it has been previously shown that similar coronaviruses required substantial efforts to enable regular information sharing and research, the global community should continue to demonstrate solidarity and cooperation, in compliance with Article 44 of the IHR (2005), in supporting each other on the identification of the source of this new virus, its full potential for human-to-human transmission, preparedness for potential importation of cases, and research for developing necessary treatment.
+Provide support to low- and middle-income countries to enable their response to this event, as well as to facilitate access to diagnostics, potential vaccines and therapeutics. 
+Under Article 43 of the IHR, States Parties implementing additional health measures that significantly interfere with international traffic (refusal of entry or departure of international travellers, baggage, cargo, containers, conveyances, goods, and the like, or their delay, for more than 24 hours) are obliged to send to WHO the public health rationale and justification within 48 hours of their implementation. WHO will review the justification and may request countries to reconsider their measures. WHO is required to share with other States Parties the information about measures and the justification received.  </t>
+  </si>
+  <si>
+    <t>https://factba.se/transcript/donald-trump-interview-sean-hannity-part-1-february-2-2020</t>
+  </si>
+  <si>
+    <t>Well, we pretty much shut it down coming in from China. We have a tremendous relationship with China, which is a very positive thing. Getting along with China, getting along with Russia, getting along with these countries… We're offering them tremendous help. We have the best in the world for that. We've done a tremendous job in many other instances also on that even recently. No, no, we've offered China help, but we can't have thousands of people coming in who may have this problem, the Coronavirus. So we're gonna see what happens.</t>
+  </si>
+  <si>
+    <t>Now, the virus that we’re talking about having to do — you know, a lot of people think that goes away in April with the heat — as the heat comes in.  Typically, that will go away in April.  We’re in great shape though.  We have 12 cases — 11 cases, and many of them are in good shape now.  So — but a very good question.
+Now, of course, they’re working on something else.  And I think they’re doing a good job on that, on the virus.  I had a long talk with President Xi — for the people in this room — two nights ago, and he feels very confident.  He feels very confident.  And he feels that, again, as I mentioned, by April or during the month of April, the heat, generally speaking, kills this kind of virus.  So that would be a good thing.
+But we’re in great shape in our country.  We have 11, and the 11 are getting better.  Okay?</t>
+  </si>
+  <si>
+    <t>https://www.whitehouse.gov/briefings-statements/remarks-president-trump-white-house-business-session-nations-governors/</t>
+  </si>
+  <si>
+    <t>A lot of people think [coronavirus] goes away in April with the heat/Typically [the virus] will go away in April</t>
+  </si>
+  <si>
+    <t>Campaign rally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last month, we signed a groundbreaking trade agreement with China that will defeat so many of our opponents. The money that's pouring in, people don't even believe it. And by the way, the virus, they're working hard. Looks like by April, you know, in theory, when it gets a little warmer, it miraculously goes away.
+I hope that's true. But we're doing great in our country. China, I spoke with President Xi, and they're working very, very hard. And I think it's going to all work out fine. Rough stuff, I tell you, rough, rough stuff. But I think it's going to work out good. We only have 11 cases, and they're all getting better.
+</t>
+  </si>
+  <si>
+    <t>It's going to work out fine. Looks like by April, you know, in theory, when it gets a little warmer, it miraculously goes away</t>
+  </si>
+  <si>
+    <t>https://factba.se/transcript/donald-trump-speech-kag-rally-manchester-new-hampshire-february-10-2020</t>
+  </si>
+  <si>
+    <t>https://factba.se/transcript/donald-trump-interview-trish-regan-fox-business-february-10-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, I think China is very, you know, professionally run in the sense that they have everything under control. I really believe they are going to have it under control fairly soon. You know in April, supposedly, it dies with the hotter weather. And that's a beautiful date to look forward to. But China I can tell you is working very hard.
+We're working with them. You know, we just sent some of our best people over there, World Health Organization and a lot of them are composed of our people. They're fantastic. And they're now in China, and we're helping them out. We're in very good shape. We have 11 cases and most of them are getting better very rapidly.
+I think they'll all be better. But, no. Our relationship with China, you know, we made a -- a great deal, a great trade deal, and our relationship on top of that is probably better with China. They respect us now. What they were getting away with was murder. You know that from being. They'll be buying $250 billion worth of our product that we grow and make, et cetera -- $250 billion coming in. And Japan is going to be $40 billion. And then you look at the US-Mexico and Canada, USMCA, that's going to be a fantastic deal for the farmers, manufacturers, automakers, everybody. I mean we have these incredible things happening.
+And I think the virus is going to be -- it's going to be fine. They're working very hard and we are in communication with them.
+</t>
+  </si>
+  <si>
+    <t>Fox News</t>
+  </si>
+  <si>
+    <t>https://factba.se/transcript/donald-trump-interview-fox-10-phoenix-kari-lake-february-19-2020</t>
+  </si>
+  <si>
+    <t>Interview: Kari Lake of Fox 10 Phoenix Interviews Donald Trump - February 19, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well, I'm confident that they're trying very hard. I mean, I know President Xi -- I get along with him very well. We've just made a great trade deal, which is going to be a lot of business for Arizona and every other place. But, they are trying very, very hard, and I think the numbers are going to get progressively better as we go along. They're working it -- they built they built a hospital in seven days, and now they're building another one. I think it's going to work out fine. I think when we get into April, in the warmer weather, that has a very negative effect on that and that type of a virus. So let's see what happens, but I think it's going to work out fine.
+I think they're working very hard. I spoke to President Xi, and they are really working hard at it.
+</t>
+  </si>
+  <si>
+    <t>https://www.whitehouse.gov/briefings-statements/remarks-president-trump-marine-one-departure-83/</t>
+  </si>
+  <si>
+    <t>Yeah, we’re very much involved.  We’re very — very cognizant of everything going on.  We have it very much under control in this country.Well, it’s a big — it’s a big situation going on throughout the world.  And I can say, the United States, we’ve very much closed our doors in certain areas, in about certain areas, through certain areas.  And we’ll see what happens.  But we have the greatest doctors in the world.  We have it very much under control.
+We accepted a few people — a small number of people.  They’re very well confined and they should be getting better fairly soon.  Very interestingly, we’ve had no deaths.  We have a — I mean, you know, we’ve had a great practice.
+We had 12, at one point.  And now they’ve gotten very much better.  Many of them are fully recovered. I think President Xi is working very, very hard.  I spoke to him.  He’s working very hard.  I think he’s doing a very good job.  It’s a big problem.  But President Xi loves his country.  He’s working very hard to solve the problem and he will solve the problem.  Okay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks by President Trump Before Marine One Departure
+</t>
+  </si>
+  <si>
+    <t>very much under control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Feb. 23, the World Health Organization announced that the virus was in 30 countries, with 78,811 confirmed cases, a more than fivefold increase over the previous three weeks.
+</t>
+  </si>
+  <si>
+    <t>President remarks</t>
+  </si>
+  <si>
+    <t>Low Ratings Fake News MSDNC (Comcast) &amp; 
+@CNN
+ are doing everything possible to make the Caronavirus look as bad as possible, including panicking markets, if possible. Likewise their incompetent Do Nothing Democrat comrades are all talk, no action. USA in great shape!</t>
+  </si>
+  <si>
+    <t>Tweet</t>
+  </si>
+  <si>
+    <t>https://twitter.com/realDonaldTrump/status/1232652371832004608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press Conference: Donald Trump Provides an Update on the Coronavirus Outbreak - February 26, 2020
+</t>
+  </si>
+  <si>
+    <t>https://factba.se/transcript/donald-trump-press-conference-white-house-coronavirus-february-26-2020</t>
+  </si>
+  <si>
+    <t>Tony Fauci, Director of the National Institute of Allergy and Infectious Diseases at NIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My name is Dr. Tony Fauci. I'm the Director of the National Institute of Allergy and Infectious Diseases at NIH. Just a very quick update on the countermeasure development in the form of vaccines and therapeutics. I had told this audience at a recent press briefing that we have a number of vaccine candidates and one prototype, to give you a feel for the timeframe of a vaccine and what its impact might be now and in subsequent years -- is that I told you we would have a vaccine that we would be putting into trials, to see if it's safe and if it induces a response that you would predict would be protective in about three months.
+I think it's going to be a little bit less than that. It's probably going to be closer to two months. That would then take about three months to determine if it's safe and immunogenic, which gives us six months. Then you graduate from a trial -- which is phase one -- of 45 people, to a trial that involves hundreds if not low thousands of people to determine efficacy.
+At the earliest, an efficacy trial would take an additional six to eight months. So although this is the fastest we have ever gone from a sequence of a virus to a trial, it still would not be any applicable to the epidemic unless we really wait about a year to a year and a half. Now, that means two things.
+One, the answer to containing is public health measures. We can't rely on a vaccine over the next several months to a year. However, if this virus -- which we have every reason to believe it is quite conceivable that it will happen -- will go beyond just a season and come back and recycle next year -- if that's the case, we hope to have a vaccine.
+And then finally and briefly: therapeutics. There are a number of anti-viral drugs that are being tested. A few days ago, we initiated a randomized controlled trial of a drug called remdesivir, which has anti-viral activity in vitro and in animal model. The good news about that is that it's a trial that's randomized to either placebo or standard of care, and drug and standard of care, which means that we will know reasonably soon whether it works.
+And if it does, we will then have an effective therapy to distribute. Thank you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO Director-General's opening remarks at the media briefing on COVID-19 - 3 March 2020
+</t>
+  </si>
+  <si>
+    <t>https://www.who.int/dg/speeches/detail/who-director-general-s-opening-remarks-at-the-media-briefing-on-covid-19---3-march-2020</t>
+  </si>
+  <si>
+    <t>Good afternoon, and thank you once again for joining us in person and also online.
+Today is my birthday, and I’ve been given a very good gift from DRC, from my own continent Africa. We have now had two weeks without a single reported case of Ebola, and there are currently no patients receiving treatment.
+This is very good news not just for me, but for the whole world – I remember how the whole world was worried about Ebola – and especially for the thousands of health workers who have sacrificed so much in the fight against Ebola, and for making sure we’re where we are. But as one epidemic looks like ending, one front of the fight closing, another is becoming increasingly complex.
+There is now a total of 90,893 reported cases of COVID-19 globally, and 3110 deaths.
+In the past 24 hours, China reported 129 cases, the lowest number of cases since the 20th of January.
+Outside China, 1848 cases were reported in 48 countries. 80% of those cases are from just three countries: the Republic of Korea, the Islamic Republic of Iran and Italy.
+12 new countries have reported their first cases, and there are now 21 countries with one case.
+122 countries have not reported any cases.
+The actions these newly-affected countries take today will be the difference between a handful of cases and a larger cluster.
+We understand that people are afraid and uncertain. Fear is a natural human response to any threat, especially when it’s a threat we don’t completely understand.
+But as we get more data, we are understanding this virus, and the disease it causes, more and more.
+This virus is not SARS, it’s not MERS, and it’s not influenza. It is a unique virus with unique characteristics.
+Both COVID-19 and influenza cause respiratory disease and spread the same way, via small droplets of fluid from the nose and mouth of someone who is sick.
+However, there are some important differences between COVID-19 and influenza.
+First, COVID-19 does not transmit as efficiently as influenza, from the data we have so far.
+With influenza, people who are infected but not yet sick are major drivers of transmission, which does not appear to be the case for COVID-19.
+Evidence from China is that only 1% of reported cases do not have symptoms, and most of those cases develop symptoms within 2 days.
+Some countries are looking for cases of COVID-19 using surveillance systems for influenza and other respiratory diseases.
+Countries such as China, Ghana, Singapore and elsewhere have found very few cases of COVID-19 among such samples – or no cases at all.
+The only way to be sure is by looking for COVID-19 antibodies in large numbers of people, and several countries are now doing those studies. This will give us further insight into the extent of infection in populations over time.
+WHO has developed protocols on how these studies should be done, and we encourage all countries to do these studies and share their data.
+The second major difference is that COVID-19 causes more severe disease than seasonal influenza.
+While many people globally have built up immunity to seasonal flu strains, COVID-19 is a new virus to which no one has immunity. That means more people are susceptible to infection, and some will suffer severe disease.
+Globally, about 3.4% of reported COVID-19 cases have died. By comparison, seasonal flu generally kills far fewer than 1% of those infected.
+Third, we have vaccines and therapeutics for seasonal flu, but at the moment there is no vaccine and no specific treatment for COVID-19. However, clinical trials of therapeutics are now being done, and more than 20 vaccines are in development.
+And fourth, we don’t even talk about containment for seasonal flu – it’s just not possible. But it is possible for COVID-19. We don’t do contact tracing for seasonal flu – but countries should do it for COVID-19, because it will prevent infections and save lives. Containment is possible.
+To summarize, COVID-19 spreads less efficiently than flu, transmission does not appear to be driven by people who are not sick, it causes more severe illness than flu, there are not yet any vaccines or therapeutics, and it can be contained – which is why we must do everything we can to contain it. That’s why WHO recommends a comprehensive approach.
+These differences mean we can’t treat COVID-19 exactly the same way we treat flu.
+But there are enough similarities to mean that countries are not starting from scratch. For decades, many countries have invested in building up their systems to detect and respond to influenza.
+Because COVID-19 is also a respiratory pathogen, those systems can, should and are being adapted for COVID-19.
+But we are concerned that countries’ abilities to respond are being compromised by the severe and increasing disruption to the global supply of personal protective equipment – caused by rising demand, hoarding and misuse.
+Shortages are leaving doctors, nurses and other frontline healthcare workers dangerously ill-equipped to care for COVID-19 patients, due to limited access to supplies such as gloves, medical masks, respirators, goggles, face shields, gowns, and aprons.
+We can’t stop COVID-19 without protecting our health workers.
+Prices of surgical masks have increased six-fold, N95 respirators have more than tripled, and gowns cost twice as much.
+Supplies can take months to deliver, market manipulation is widespread, and stocks are often sold to the highest bidder.
+WHO has shipped nearly half a million sets of personal protective equipment to 47 countries, but supplies are rapidly depleting.
+WHO estimates that each month, 89 million medical masks will be required for the COVID-19 response; 76 million examination gloves, and 1.6 million goggles.
+WHO has guidelines on how to rationalize the use of personal protective equipment in health facilities and manage supply chains effectively.
+We’re also working with governments, manufacturers and the Pandemic Supply Chain Network to boost production and secure supplies for critically affected and at-risk countries.
+Globally, it is estimated that PPE supplies need to be increased by 40 per cent.
+We continue to call on manufacturers to urgently increase production to meet this demand and guarantee supplies.
+And we have called on governments to develop incentives for manufacturers to ramp up production. This includes easing restrictions on the export and distribution of personal protective equipment and other medical supplies.
+Once again, this is a question of solidarity. This cannot be solved by WHO alone, or one industry alone. It requires all of us working together to ensure all countries can protect the people who protect the rest of us.</t>
+  </si>
+  <si>
+    <t>This virus is not SARS, it’s not MERS, and it’s not influenza. It is a unique virus with unique characteristics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have, through some very good early decisions -- decisions that were actually ridiculed at the beginning -- we closed up our borders to flights coming in from certain areas, areas that were hit by the coronavirus and hit pretty hard. And we did it very early. A lot of people thought we shouldn't have done it that early, and we did, and it turned out to be a very good thing.
+We -- we're ready to adapt and we're ready to do whatever we have to as the disease spreads, if it spreads. As most of you know, the -- the level that we've had in our country is very low, and those people are getting better, or we think that in almost all cases they're better, or getting. We have a total of 15. We took in some from Japan -- you heard about that -- because they're American citizens, and they're in quarantine.
+And they're getting better too. But we felt we had an obligation to do that. It could have been as many as 42. And we found that we were -- it was just an obligation we felt that we had. We could have left them, and that would have been very bad -- very bad, I think -- of American people. And they're recovering.
+Of the 15 people -- the "original 15," as I call them -- 8 of them have returned to their homes, to stay in their homes until fully recovered. One is in the hospital and five have fully recovered. And one is, we think, in pretty good shape and it's in between hospital and going home. So we have a total of -- but we have a total of 15 people, and they're in a process of recovering, with some already having fully recovered. And again, when you have 15 people, and the 15 within a couple of days is going to be down to close to zero, that's a pretty good job we've done.
+We started out by looking at certain things. We've been working with the Hill very, very carefully, very strongly. And I think we have very good bipartisan spirit for money. We were asking for two and a half billion, and we think that's a lot, but the Democrats, and, I guess, Senator Schumer wants us to have much more than that.
+And normally, in life, I'd say, "We'll take it. We'll take it." If they want to give more, we'll do more. We're going to spend whatever is appropriate. Hopefully, we're not going to have to spend so much because we really think we've done a great job in keeping it down to a minimum. And again, we've had tremendous success -- tremendous success -- beyond what people would have thought.
+Now, at the same time, you do have some outbreaks in some countries. Italy and various countries are having some difficulty. China, you know about it, where it started. I spoke with President Xi. We had a great talk. He's working very hard, I have to say. He's working very, very hard. And if you can count on the reports coming out of China, that spread has gone down quite a bit.
+The infection seems to have gone down over the last two days. As opposed to getting larger, it's actually gotten smaller. In one instance where we think we can be -- it's somewhat reliable, it seems to have gotten quite a bit smaller. With respect to the money that's being negotiated, they can do whatever they want.
+I mean, again, we'll do the two and a half. We're requesting two and a half. Some Republicans would like us to get four, and some Democrats would like us to get eight and a half. And we'll be satisfied whatever -- whatever it is. We're bringing in a specialist -- a very highly regarded specialist -- tomorrow, who works, actually, at the State Department.
+Very, very tremendously talented in doing this. I want you to understand something that shocked me when I saw it that -- and I spoke with Dr. Fauci on this, and I was really amazed, and I think most people are amazed to hear it: The flu, in our country, kills from 25,000 people to 69,000 people a year. That was shocking to me. And, so far, if you look at what we have with the 15 people and their recovery, one is -- one is pretty sick but hopefully will recover, but the others are in great shape.
+But think of that: 25,000 to 69,000. Over the last 10 years, we've lost 360,000. These are people that have died from the flu -- from what we call the flu. "Hey, did you get your flu shot?" And that's something. Now, what we've done is we've stopped non-U.S. citizens from coming into America from China.
+That was done very early on. We're screening people, and we have been, at a very high level -- screening people coming into the country from infected areas. We have in quarantine those infected and those at risk. We have a lot of great quarantine facilities. We're rapidly developing a vaccine, and they can speak to you -- the professionals can speak to you about that.
+The vaccine is coming along well. And in speaking to the doctors, we think this is something that we can develop fairly rapidly, a vaccine for the future, and coordinate with the support of our partners. We have great relationships with all of the countries that we're talking about. Some fairly large number of countries.
+Some it's one person, and many countries have no problem whatsoever. And we'll see what happens. But we're very, very ready for this, for anything -- whether it's going to be a breakout of larger proportions or whether or not we're -- you know, we're at that very low level, and we want to keep it that way.
+So we're at the low level. As they get better, we take them off the list, so that we're going to be pretty soon at only five people. And we could be at just one or two people over the next short period of time. So we've had very good luck. The Johns Hopkins, I guess -- is a highly respected, great place -- they did a study, comprehensive: "The Countries Best and Worst Prepared for an Epidemic." And the United States is now -- we're rated number one.
+We're rated number one for being prepared. This is a list of different countries. I don't want to get in your way, especially since you do such a good job. This is a list of the different countries. The United States is rated number one most prepared. United Kingdom, Netherlands, Australia, Canada, Thailand, Sweden, Denmark, South Korea, Finland.
+These -- this is a list of the best-rated countries in the world by Johns Hopkins. We're doing something else that's important to me, because he's been terrific in many ways, but he's also very good on healthcare. And we really followed him very closely -- a lot of states do -- when Mike was governor -- Mike Pence -- of Indiana.
+They've established great healthcare. They have a great system there. It's a system that a lot of -- a lot of the other states have really looked to and changed their systems. They wanted to base it on the Indiana system. It's very good. And I think -- and he's, really, very expert at the field. And what I've done is I'm going to be announcing, exactly right now, that I'm going to be putting our Vice President, Mike Pence, in charge.
+And Mike will be working with the professionals, doctors, and everybody else that's working. The team is brilliant. I spent a lot of time with the team over the last couple of weeks, but they're totally brilliant, and we're doing really well. And Mike is going to be in charge, and Mike will report back to me. But he's got a certain talent for this. And I'm going to ask Mike Pence to say a few words. Please. Thank you. Mike?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is like a flu/And again, when you have 15 people, and the 15 within a couple of days is going to be down to close to zero, that’s a pretty good job we’ve done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks by President Trump in Meeting with African American Leaders
+</t>
+  </si>
+  <si>
+    <t>With what we’re talking about now with the virus, we can’t do that.  We have to do it differently.  If we’re doing a great job, we should congratulate these professionals that are the best in the world.
+And you know what?  If we were doing a bad job, we should also be criticized.  But we have done an incredible job.  We’re going to continue.  It’s going to disappear.  One day — it’s like a miracle — it will disappear.  And from our shores, we — you know, it could get worse before it gets better.  It could maybe go away.  We’ll see what happens.  Nobody really knows.
+The fact is, the greatest experts — I’ve spoken to them all.  Nobody really knows.  But we have done and our professionals have done a fantastic job.  We’re working with other countries.  We’re trying to help some other countries.  A couple of them have gotten hit pretty hard.  South Korea and Italy, in particular.  They’ve been hit pretty hard.  And it’ll all work out.  And I just want to thank all of the people that have worked with us in government and some of these great professionals because they have been incredible — the job.
+To think of it — with all of what you see going on — 15 people.  We brought in the others, but — and they’re doing good.  But 15 people is almost, I would say, a miracle.</t>
+  </si>
+  <si>
+    <t>It’s going to disappear.  One day — it’s like a miracle — it will disappear</t>
+  </si>
+  <si>
+    <t>https://www.whitehouse.gov/briefings-statements/remarks-president-trump-meeting-african-american-leaders/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do we have a great time at a Trump rally? Do we have -- My administration has also taken the most aggressive action in modern history to protect Americans from the coronavirus. You know about this whole thing. Horrible. Including sweeping travel restrictions.Today we met with the big great pharmaceutical companies and they're really working hard and they're working smart, and we had some -- We had a great meeting today with a lot of the great companies and they're going to have vaccines. I think relatively soon and they're going to have something that makes you better and that's going to actually take place, we think, even sooner.So it's a lot of good things are happening, but we have strong borders and, really, our tough and early actions have really been proven to be a hundred percent right. We went out, we're doing everything in our power to keep the sick and infected people from coming into our country, we're working on that very hard.
+We close our borders very early. I took a lot of heat for that. Remember when I closed the borders to certain areas of the world, I took a lot of heat, but there are fringe globalists who would rather keep our borders open than keep our infection and think of it, keep all of the infection let it come in. And we're working with other countries in all fairness.
+Look it's a problem, we're working with other countries. Remember this, over the last long period of time, the flu, the common flu, you know this, right, from 27,000 to 70,000 people get infected and many people die. Think of it, 27,000, you lose 27,000 people to the common flu. It can be much more. One year was much higher than the 70,000 number those people die.
+So when you lose 27,000 people a year, nobody knew that. I didn't know that. Three or four weeks ago I was sitting, I said, "What do we lose with a regular flu?" They said about 27,000 minimum goes up to 70, sometimes even 80. One year it went up to one thousand people. I said nobody told me that. Nobody knows that.
+So I actually told the pharmaceutical companies you have to do a little bit better job on that vaccine. Really, you have to do a better job with that vaccine. Thank you. Last year, it was approximately 36,000 people died, so we're working hard on it and we're going to come up with some really great solutions.
+In the meantime, we're stopping with -- Only in North Carolina. There can only be -- How many people here are from South Carolina, by the way? Well, we love both places, but that was from North Carolina. [Crowd cheering] But just to finish up, so we've made a lot of progress. We've really done a great job with it we're keeping our borders strong.
+My job is to protect the health of American patients and Americans first and that's what we're doing. Washington Democrats are trying to politicize the coronavirus, denigrating the noble work of our public health professionals, but honestly, not so much anymore. Everyone appreciates. These are the greatest professionals in the world at what they do, we're actually helping a lot of other countries where they have some very, very big problems.
+So we have our professionals in constant touch. I'm in constant touch with some of the leaders and helping them out, but the political attacks from some of the Democrats really must stop. We've got to all work together on this one to safeguard our people. We're going to safeguard our people, the United States.
+The United States is, right now, ranked by far No. 1 in the world for preparedness. Earlier today, when I met with the pharmaceutical companies, things were discussed and learned, honestly, the media didn't know. Nobody knew, they've never heard this before and we learned a lot and maybe that had the impact on the stock market.
+Who knows what happened. But we're going to reduce the severity of what's happening, the duration of the virus. We discussed all of these things. We will bring these therapies to market as rapidly as possible. And I have to say, with a thriving economy, the way it is, and the most advanced health system in America is so resilient.
+We know what we're doing. We have the greatest people on earth. The greatest health system on earth. We have the greatest health system on earth. The renewal of American strength over the last three years means, at times of challenge, we are the best prepared to rise to any occasion. No country is better equipped than America to handle new threats and no people are more skilled, talented, tough or driven than Americans.
+And together, we are in the midst of the great American comeback. That's what it is. Last month, we added two hundred and 25,000 new jobs in January alone. That makes 7 million jobs since the election. We have destroyed the ISIS territorial caliphate and we killed the founder and leader of ISIS Al-Baghdadi.
+</t>
+  </si>
+  <si>
+    <t>they're going to have vaccines. I think relatively soon/The United States is, right now, ranked by far No. 1 in the world for preparedness</t>
+  </si>
+  <si>
+    <t>https://factba.se/transcript/donald-trump-speech-kag-rally-charlotte-north-carolina-march-2-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech: Donald Trump Holds a Political Rally in Charlotte, North Carolina - March 2, 2020
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We got hit with the coronavirus. And that was out of surprise. I started hearing about it very quietly a couple of months ago from China. And I said, wow, I hope that doesn't happen over here. They got a little bit more, little bit more, little bit bigger. And against the advice of a lot of great professionals, frankly, and they worked for the administration and outside -- I closed the borders to China.
+And that's why we have a very small number of people that we have to really worry about. Ad you know, a lot of things have happened that have been very fortunate. But I closed the borders, against the advice of a lot of people. And it turned out to be a very wise decision. Otherwise, we would have had, you know, a lot of people coming in during the course of a number of weeks.
+We're doing great job. We have a great group. Mike Pence is doing a fantastic job. I put him in charge of the group. And we have the greatest doctors in the world. We're also helping other countries. We help a lot of other countries. We would even help Iran, if they wanted. They're hit very hard. But we're helping a lot of other countries.
+Well, I would say everybody said, it's too early, it's too soon, and good people, brilliant people, in many ways, doctors and lawyers and, frankly, a lot of people that work on this stuff almost exclusively. And they said, don't do it. And my theory was that we take a lot of people in. And China was being hit hard at that time, by that time.
+We started reading a little bit more about it. It wasn't something that was going to affect us. You don't think of it in terms -- when you first heard it in China, you don't think our country is going to be affected. And I thought it was a wise thing to do. And, again, we stepped tremendous numbers of people coming in from China.
+And then we worked on a whole quarantine system, which worked out very well. One of the things we did, the numbers are small, when you're talking around 100 people. But we brought in approximately 40 people from a ship. They're Americans, but they were on a ship. You know all about that. We brought them in. And I knew that, when I bring them in, immediately, our numbers get higher.
+Now, again, compared to some countries, we're talking about very small numbers in this -- in our country, very, very small, because of what we did with the borders. But I brought in, actually, approximately 40, a little bit more than that, from outside. Because they're Americans, we had to take care of them.
+They were left in sort of abeyance. They were in the middle of nowhere. And I felt we had to do it. And, in one way, I hated to do it statistically. I hated to do it from the standpoint of having people coming in. It's going to be -- is it going to look bad? I wasn't worried about the other people catching it very much, because our people so good, and we had quarantine set up. But we brought in a lot of people.
+Now, a lot of those people now are getting better, very much so. And we will be releasing them. And I think we should probably, when we release them -- when people are better, we release them, and we reduce our numbers. So, we have been doing really well. It does have a big impact on older people and people that aren't well, and has very little impact on young people, especially very young people, which is interesting.
+Much, much less so than a lot of other infections or viruses. So, we have learned a lot. We're learning a lot right now. But older people, like the nursing home in Washington, the state of Washington, has been very, very heavily affected. The people are much older, and many of them are not very well.
+</t>
+  </si>
+  <si>
+    <t>It wasn't something that was going to affect us/“It’s very mild,”</t>
+  </si>
+  <si>
+    <t>https://factba.se/transcript/donald-trump-interview-sean-hannity-fox-telephone-march-4-2020</t>
+  </si>
+  <si>
+    <t>Remarks by President Trump and President Bolsonaro of Brazil Before Working Dinner | West Palm Beach, FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview: Sean Hannity Interviews Donald Trump Via Telephone - March 4, 2020
+</t>
+  </si>
+  <si>
+    <t>Well, we’ll have tremendous rallies.  And we’re doing very well.  And we’ve done a fantastic job with respect to that subject on the virus.  Yeah. We’ve had tremendous cooperation with other countries and all over the world.  And we’ve made it very, very tough.  Very strong.  Very stringent borders. No, I’m not concerned at all.  No, I’m not.  No, we’ve done a great job.</t>
+  </si>
+  <si>
+    <t>No, I’m not concerned at all</t>
+  </si>
+  <si>
+    <t>https://www.whitehouse.gov/briefings-statements/remarks-president-trump-president-bolsonaro-brazil-working-dinner-west-palm-beach-fl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks by President Trump After Meeting with Republican Senators
+</t>
+  </si>
+  <si>
+    <t>https://www.whitehouse.gov/briefings-statements/remarks-president-trump-meeting-republican-senators-2/?utm_source=link&amp;utm_medium=header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So we just had a great meeting.  Tremendous unity in the Republican Party.  And we’re working on a lot of different things.  We’ve also had some very good updates on the virus.  That’s working out very smoothly.  Tremendous people.  It’s a tremendous task force.  They have done a great job — not a good job, a great job.
+As you know, it’s about 600 cases, it’s about 26 deaths, within our country.  And had we not acted quickly, that number would have been substantially more.  But we — we just had a meeting on stimulus, and you’ll be hearing about it soon.  But it was a great meeting.
+There’s great unity within the Republican Party.
+Also, some very good numbers coming out of some countries where it started earlier.  And we’re seeing some fairly good numbers come out of those countries — that’s a good thing — including China.  And they’ve released numbers, and we’ve gotten some numbers from China that look pretty promising.  So we’ll be able to further report.
+Well, I don’t think it’s a big deal.  I would do it.  I don’t feel that — any reason.  I feel extremely good.  I feel very good.  But I guess it’s not a big deal to get tested.  And it’s something I would do.
+But again, I spoke to the White House doctor — terrific guy, talented guy — he said he sees no reason to do it.  There’s no symptoms, no anything.
+And you know what?  If there were, you people would be the first to know it.  You would — you would maybe even tell me about it.
+ a lot of positive.  Different numbers.  All different numbers.  Very large numbers.  And some small numbers too, by the way.
+Look, right now, I guess we’re at 26 deaths, and if you look at the flu — the flu, for this year — we’re at 8 mil- — we’re looking at 8,000 deaths.  And, you know, hundreds of thousands of cases, but we have 8,000 deaths.  So you have 8,000 versus 26 deaths, at this time.
+With all of that being said, we’re taking this unbelievably seriously, and I think we’re doing a really good job.  And, again, the task force, headed up by the Vice President, has been fantastic.
+No, I think the U.S. has done a very good job on testing.  We had to change things that were done, that were nobody’s fault.  Perhaps they wanted to do something a different way, but it was a much slower process from a previous administration.  And we did change them.  We made the changes.  But the testing has gone very well.  And when people need a test, they can get a test.  When the professionals need a test, when they need tests for people, they can get the test.  It’s gone really well.
+Look, the biggest thing that we did was stopping the inflow of people early on, and that was weeks ahead of schedule, weeks ahead of what other people would have done.  In fact, other people, mostly, would probably not have done it even until now.  And that’s made a big difference.
+No, I think the people are doing a fantastic job.  In fact, just today — I have it inside — Governor Newsom, Gavin Newsom of California, said tremendous — there’s an article that just came out; I had it inside and I showed it to the senators, and I showed them other articles too — where governors — Democrat governors are saying we’ve done a fantastic job.
+Gavin Newsom said there’s not a thing that he’s asked for that we weren’t able to get him.  And, you know, he’s been — he’s a critical guy, like we all are.  But it was a very positive statement.
+Many Democrat governors have said that the task force and the federal government, what we’ve done, has been terrific.
+Well, this was unexpected.  This was something that came out of China, and it hit us and many other countries.  You look at the numbers; I see the numbers with just by watching you folks.  I see it — it’s over 100 different countries.  And it hit the world.
+And we’re prepared, and we’re doing a great job with it.  And it will go away.  Just stay calm.  It will go away.
+We want to protect our shipping industry, our cruise industry, cruise ships.  We want to protect our airline industry — very important.  But everybody has to be vigilant and has to be careful.
+But be calm.  It’s really working out.  And a lot of good things are going to happen.  The consumer is ready, and the consumer is so powerful in our country with what we’ve done with tax cuts and regulation cuts and all of those things.  The consumer has never been in a better position than they are right now.
+So a lot of good things are going to happen.  Thank you very much, everybody.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just stay calm.  It will go away/be calm.  It’s really working out.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">President Trump’s Speech on Coronavirus Pandemic: Full Transcript
+</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2020/03/11/us/politics/trump-coronavirus-speech.html?action=click&amp;module=RelatedLinks&amp;pgtype=Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My fellow Americans, tonight I want to speak with you about our nation’s unprecedented response to the coronavirus outbreak that started in China and is now spreading throughout the world.
+Today, the World Health Organization officially announced that this is a global pandemic.
+We have been in frequent contact with our allies, and we are marshaling the full power of the federal government and the private sector to protect the American people.
+This is the most aggressive and comprehensive effort to confront a foreign virus in modern history. I am confident that by counting and continuing to take these tough measures, we will significantly reduce the threat to our citizens and we will ultimately and expeditiously defeat this virus.
+From the beginning of time, nations and people have faced unforeseen challenges, including large-scale and very dangerous health threats. This is the way it always was and always will be. It only matters how you respond, and we are responding with great speed and professionalism.
+Our team is the best anywhere in the world. At the very start of the outbreak, we instituted sweeping travel restrictions on China and put in place the first federally mandated quarantine in over 50 years. We declared a public health emergency and issued the highest level of travel warning on other countries as the virus spread its horrible infection.
+And taking early intense action, we have seen dramatically fewer cases of the virus in the United States than are now present in Europe.
+The European Union failed to take the same precautions and restrict travel from China and other hot spots. As a result, a large number of new clusters in the United States were seeded by travelers from Europe.
+After consulting with our top government health professionals, I have decided to take several strong but necessary actions to protect the health and well being of all Americans.
+To keep new cases from entering our shores, we will be suspending all travel from Europe to the United States for the next 30 days. The new rules will go into effect Friday at midnight. These restrictions will be adjusted subject to conditions on the ground.
+There will be exemptions for Americans who have undergone appropriate screenings, and these prohibitions will not only apply to the tremendous amount of trade and cargo, but various other things as we get approval. Anything coming from Europe to the United States is what we are discussing. These restrictions will also not apply to the United Kingdom.
+At the same time, we are monitoring the situation in China and in South Korea. And, as their situation improves, we will re-evaluate the restrictions and warnings that are currently in place for a possible early opening.
+Earlier this week, I met with the leaders of health insurance industry who have agreed to waive all co-payments for coronavirus treatments, extend insurance coverage to these treatments, and to prevent surprise medical billing.
+We are cutting massive amounts of red tape to make antiviral therapies available in record time. These treatments will significantly reduce the impact and reach of the virus.
+Additionally, last week, I signed into law an $8.3 billion funding bill to help C.D.C. and other government agencies fight the virus and support vaccines, treatments and distribution of medical supplies. Testing and testing capabilities are expanding rapidly, day by day. We are moving very quickly.
+The vast majority of Americans: The risk is very, very low. Young and healthy people can expect to recover fully and quickly if they should get the virus. The highest risk is for elderly population with underlying health conditions. The elderly population must be very, very careful.
+In particular, we are strongly advising that nursing homes for the elderly suspend all medically unnecessary visits. In general, older Americans should also avoid nonessential travel in crowded areas.
+My administration is coordinating directly with communities with the largest outbreaks, and we have issued guidance on school closures, social distancing and reducing large gatherings.
+Smart action today will prevent the spread of the virus tomorrow.
+Every community faces different risks and it is critical for you to follow the guidelines of your local officials who are working closely with our federal health experts — and they are the best.
+For all Americans, it is essential that everyone take extra precautions and practice good hygiene. Each of us has a role to play in defeating this virus. Wash your hands, clean often-used surfaces, cover your face and mouth if you sneeze or cough, and most of all, if you are sick or not feeling well, stay home.
+To ensure that working Americans impacted by the virus can stay home without fear of financial hardship, I will soon be taking emergency action, which is unprecedented, to provide financial relief. This will be targeted for workers who are ill, quarantined, or caring for others due to coronavirus.
+I will be asking Congress to take legislative action to extend this relief.
+Because of the economic policies that we have put into place over the last three years, we have the greatest economy anywhere in the world, by far.
+Our banks and financial institutions are fully capitalized and incredibly strong. Our unemployment is at a historic low. This vast economic prosperity gives us flexibility, reserves, and resources to handle any threat that comes our way.
+This is not a financial crisis, this is just a temporary moment of time that we will overcome together as a nation and as a world. 
+However, to provide extra support for American workers, families, and businesses, tonight I am announcing the following additional actions: I am instructing the Small Business Administration to exercise available authority to provide capital and liquidity to firms affected by the coronavirus.
+Effective immediately, the S.B.A. will begin providing economic loans in affected states and territories. These low-interest loans will help small businesses overcome temporary economic disruptions caused by the virus. To this end, I am asking Congress to increase funding for this program by an additional $50 billion.
+Using emergency authority, I will be instructing the Treasury Department to defer tax payments, without interest or penalties, for certain individuals and businesses negatively impacted. This action will provide more than $200 billion of additional liquidity to the economy.
+Finally, I am calling on Congress to provide Americans with immediate payroll tax relief. Hopefully they will consider this very strongly.
+We are at a critical time in the fight against the virus. We made a lifesaving move with early action on China. Now we must take the same action with Europe. We will not delay. I will never hesitate to take any necessary steps to protect the lives, health, and safety of the American people. I will always put the well being of America first.
+If we are vigilant — and we can reduce the chance of infection, which we will — we will significantly impede the transmission of the virus. The virus will not have a chance against us.
+No nation is more prepared or more resilient than the United States. We have the best economy, the most advanced health care, and the most talented doctors, scientists and researchers anywhere in the world.
+We are all in this together. We must put politics aside, stop the partisanship and unify together as one nation and one family.
+As history has proven time and time again, Americans always rise to the challenge and overcome adversity.
+Our future remains brighter than anyone can imagine. Acting with compassion and love, we will heal the sick, care for those in need, help our fellow citizens and emerge from this challenge stronger and more unified than ever before.
+God bless you, and God bless America. Thank you.
+</t>
+  </si>
+  <si>
+    <t>This is the most aggressive and comprehensive effort to confront a foreign virus in modern history</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
     </font>
     <font>
       <u/>
@@ -173,13 +683,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,21 +746,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -486,210 +1060,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="53" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="5" width="29.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="9">
+        <v>43852</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="16">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43852</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="16">
+        <v>-9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43852</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="16">
+        <v>-5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43852</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43854</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="14">
+        <v>43854</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="14">
+        <v>43858</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43860</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="16">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9">
+        <v>43860</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="16">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43863</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="9">
+        <v>43871</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="18">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9">
+        <v>43871</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="18">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43871</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43880</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="9">
+        <v>43884</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="9">
+        <v>43887</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-3</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="9">
+        <v>43887</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="9">
+        <v>43887</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="9">
+        <v>43889</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="11">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="9">
+        <v>43892</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="11">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="9">
+        <v>43893</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="9">
+        <v>43894</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="11">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="9">
+        <v>43898</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="11">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43852</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="9">
+        <v>43900</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="11">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="9">
+        <v>43901</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="11">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43854</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43854</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="304" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
+      <c r="G26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H27">
+    <sortState ref="A2:H29">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A8" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A10" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A4" r:id="rId7"/>
     <hyperlink ref="A5" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
+    <hyperlink ref="A15" r:id="rId13"/>
+    <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
+    <hyperlink ref="A18" r:id="rId16"/>
+    <hyperlink ref="A19" r:id="rId17"/>
+    <hyperlink ref="A22" r:id="rId18"/>
+    <hyperlink ref="A23" r:id="rId19"/>
+    <hyperlink ref="A24" r:id="rId20"/>
+    <hyperlink ref="A25" r:id="rId21"/>
+    <hyperlink ref="A26" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>